--- a/Big Tech/Tesla.xlsx
+++ b/Big Tech/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED726C7-FCD0-CA4E-AF55-1010CC1415F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A44362B-C55A-2D4A-87CB-62646EF8B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -352,9 +389,6 @@
   </si>
   <si>
     <t>FCF Margin</t>
-  </si>
-  <si>
-    <t>Tesla</t>
   </si>
   <si>
     <t>SG&amp;A as % of Revenue</t>
@@ -862,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -894,22 +928,6 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -947,14 +965,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -986,6 +1000,22 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2176,6 +2206,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24kar&amp;q=XNAS%3aTSLA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a24kar</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>384.28960000000001</v>
+    <v>101.81</v>
+    <v>2.0099</v>
+    <v>12.18</v>
+    <v>6.2371999999999997E-2</v>
+    <v>0.17</v>
+    <v>8.1939999999999997E-4</v>
+    <v>USD</v>
+    <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
+    <v>127855</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
+    <v>207.79</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>45016.999993344529</v>
+    <v>0</v>
+    <v>197.2</v>
+    <v>656424800000</v>
+    <v>TESLA, INC.</v>
+    <v>TESLA, INC.</v>
+    <v>197.53</v>
+    <v>53.870800000000003</v>
+    <v>195.28</v>
+    <v>207.46</v>
+    <v>207.63</v>
+    <v>3164103000</v>
+    <v>TSLA</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>170222118</v>
+    <v>143949373</v>
+    <v>2003</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2475,11 +2945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC108" sqref="AC108"/>
+      <selection pane="bottomRight" activeCell="S118" sqref="S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,13 +2958,12 @@
     <col min="2" max="17" width="15" customWidth="1"/>
     <col min="18" max="20" width="18.83203125" customWidth="1"/>
     <col min="21" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" customWidth="1"/>
-    <col min="24" max="26" width="19" customWidth="1"/>
+    <col min="23" max="26" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2007</v>
@@ -2630,7 +3099,7 @@
     </row>
     <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2747,16 +3216,16 @@
       <c r="V4" s="17">
         <v>210100000000</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="Y4" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="56" t="s">
+      <c r="Z4" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2845,19 +3314,19 @@
         <f t="shared" ref="V5" si="4">(V4/U4)-1</f>
         <v>0.27720364741641346</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="45">
         <f>(Q5+P5+O5)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X5" s="57">
+      <c r="X5" s="45">
         <f>(Q21+P21+O21)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y5" s="57">
+      <c r="Y5" s="45">
         <f>(Q30+P30+O30)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="45">
         <f>(Q106+P106+O106)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -2967,16 +3436,16 @@
       <c r="Q7" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W7" s="55" t="s">
+      <c r="W7" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="56" t="s">
+      <c r="X7" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" s="56" t="s">
+      <c r="Y7" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" s="56" t="s">
+      <c r="Z7" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3032,19 +3501,19 @@
       <c r="Q8" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="45">
         <f>Q8</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X8" s="58">
+      <c r="X8" s="46">
         <f>Q22</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y8" s="58">
+      <c r="Y8" s="46">
         <f>Q31</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z8" s="58">
+      <c r="Z8" s="46">
         <f>Q107/Q4</f>
         <v>9.281628243843755E-2</v>
       </c>
@@ -3104,7 +3573,7 @@
     </row>
     <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="15">
         <f>B9/B4</f>
@@ -3170,17 +3639,17 @@
         <f t="shared" si="5"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W10" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" s="56" t="s">
+      <c r="W10" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="X10" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" s="44" t="s">
         <v>111</v>
-      </c>
-      <c r="Z10" s="56" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3235,19 +3704,19 @@
       <c r="Q11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W11" s="57">
+      <c r="W11" s="45">
         <f>Q10</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X11" s="58">
+      <c r="X11" s="46">
         <f>Q14</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y11" s="58">
+      <c r="Y11" s="46">
         <f>Q81</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z11" s="58">
+      <c r="Z11" s="46">
         <f>Q90</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -3357,22 +3826,22 @@
       <c r="Q13" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W13" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="56" t="s">
+      <c r="W13" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="Y13" s="56" t="s">
+      <c r="X13" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="56" t="s">
+      <c r="Y13" s="44" t="s">
         <v>115</v>
+      </c>
+      <c r="Z13" s="44" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="15">
         <f>B13/B4</f>
@@ -3438,19 +3907,19 @@
         <f t="shared" ref="Q14" si="19">Q13/Q4</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W14" s="57">
+      <c r="W14" s="45">
         <f>Q29/Q73</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="46">
         <f>Q29/Q55</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="46">
         <f>Q23/(Q73+Q57+Q62)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="24">
         <f>Q68/Q73</f>
         <v>0.83269953471725122</v>
       </c>
@@ -3560,17 +4029,17 @@
       <c r="Q16" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W16" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="X16" s="56" t="s">
+      <c r="W16" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y16" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="Y16" s="56" t="s">
+      <c r="Z16" s="44" t="s">
         <v>159</v>
-      </c>
-      <c r="Z16" s="56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3625,21 +4094,21 @@
       <c r="Q17" s="1">
         <v>67806000000</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="23">
         <f>(Q36+P36+O36+N36+M36)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="47">
         <f>Y101/Q4</f>
-        <v>7.3653973631877436</v>
-      </c>
-      <c r="Y17" s="59">
+        <v>8.058049151751737</v>
+      </c>
+      <c r="Y17" s="47">
         <f>Y101/Q29</f>
-        <v>47.785919082510354</v>
-      </c>
-      <c r="Z17" s="60">
+        <v>52.279770627588405</v>
+      </c>
+      <c r="Z17" s="48">
         <f>Y101/Q107</f>
-        <v>79.35458272715249</v>
+        <v>86.817193492924218</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3747,8 +4216,8 @@
       <c r="Q19" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W19" s="55" t="s">
-        <v>161</v>
+      <c r="W19" s="43" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,7 +4272,7 @@
       <c r="Q20" s="10">
         <v>17626000000</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="49">
         <f>Q41-Q57-Q62</f>
         <v>19086000000</v>
       </c>
@@ -4631,66 +5100,66 @@
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="35">
+      <c r="C36" s="25">
         <f>(C35-B35)/B35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="25">
         <f t="shared" ref="D36:G36" si="44">(D35-C35)/C35</f>
         <v>-0.4301044964424558</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="25">
         <f t="shared" si="44"/>
         <v>-0.34720316487324726</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="25">
         <f t="shared" si="44"/>
         <v>0.97934100790677103</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="25">
         <f t="shared" si="44"/>
         <v>6.9332275712189653E-2</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="25">
         <f t="shared" ref="H36" si="45">(H35-G35)/G35</f>
         <v>0.11245563535757203</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="25">
         <f t="shared" ref="I36" si="46">(I35-H35)/H35</f>
         <v>4.3141491027541216E-2</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="25">
         <f t="shared" ref="J36" si="47">(J35-I35)/I35</f>
         <v>2.9131513249259472E-2</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="25">
         <f t="shared" ref="K36" si="48">(K35-J35)/J35</f>
         <v>0.12488104709754919</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L36" s="25">
         <f t="shared" ref="L36" si="49">(L35-K35)/K35</f>
         <v>0.14940504257620726</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="25">
         <f t="shared" ref="M36" si="50">(M35-L35)/L35</f>
         <v>2.8758792939103994E-2</v>
       </c>
-      <c r="N36" s="35">
+      <c r="N36" s="25">
         <f t="shared" ref="N36" si="51">(N35-M35)/M35</f>
         <v>3.7970971998240725E-2</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O36" s="25">
         <f t="shared" ref="O36" si="52">(O35-N35)/N35</f>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P36" s="25">
         <f t="shared" ref="P36" si="53">(P35-O35)/O35</f>
         <v>0.17604166666666668</v>
       </c>
-      <c r="Q36" s="35">
+      <c r="Q36" s="25">
         <f t="shared" ref="Q36" si="54">(Q35-P35)/P35</f>
         <v>0</v>
       </c>
@@ -7029,7 +7498,7 @@
     </row>
     <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" s="15">
         <f>B80/B4</f>
@@ -7201,10 +7670,10 @@
       <c r="Q83" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X83" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y83" s="70"/>
+      <c r="X83" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y83" s="68"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7258,10 +7727,10 @@
       <c r="Q84" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X84" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y84" s="68"/>
+      <c r="X84" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y84" s="66"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7315,10 +7784,10 @@
       <c r="Q85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X85" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y85" s="24">
+      <c r="X85" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y85" s="52">
         <f>Q18</f>
         <v>191000000</v>
       </c>
@@ -7375,10 +7844,10 @@
       <c r="Q86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X86" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y86" s="24">
+      <c r="X86" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y86" s="52">
         <f>Q57</f>
         <v>1502000000</v>
       </c>
@@ -7435,10 +7904,10 @@
       <c r="Q87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X87" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y87" s="24">
+      <c r="X87" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y87" s="52">
         <f>Q62</f>
         <v>1597000000</v>
       </c>
@@ -7495,15 +7964,15 @@
       <c r="Q88" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X88" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y88" s="25">
+      <c r="X88" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y88" s="54">
         <f>Y85/(Y86+Y87)</f>
         <v>6.1632784769280413E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
@@ -7555,17 +8024,17 @@
       <c r="Q89" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X89" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y89" s="24">
+      <c r="X89" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y89" s="52">
         <f>Q28</f>
         <v>1132000000</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="15">
         <f>(-1*B89)/B4</f>
@@ -7631,10 +8100,10 @@
         <f t="shared" si="56"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X90" s="21" t="s">
+      <c r="X90" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="24">
+      <c r="Y90" s="52">
         <f>Q26</f>
         <v>13719000000</v>
       </c>
@@ -7691,10 +8160,10 @@
       <c r="Q91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X91" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y91" s="25">
+      <c r="X91" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y91" s="54">
         <f>Y89/Y90</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -7751,10 +8220,10 @@
       <c r="Q92" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X92" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y92" s="26">
+      <c r="X92" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y92" s="56">
         <f>Y88*(1-Y91)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -7811,10 +8280,10 @@
       <c r="Q93" s="1">
         <v>22000000</v>
       </c>
-      <c r="X93" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y93" s="68"/>
+      <c r="X93" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y93" s="66"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -7868,10 +8337,10 @@
       <c r="Q94" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X94" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y94" s="28">
+      <c r="X94" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y94" s="57">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7927,11 +8396,12 @@
       <c r="Q95" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X95" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y95" s="27">
-        <v>2.11</v>
+      <c r="X95" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y95" s="58" cm="1">
+        <f t="array" ref="Y95">_FV(A1,"Beta")</f>
+        <v>2.0099</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -7986,10 +8456,10 @@
       <c r="Q96" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X96" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y96" s="28">
+      <c r="X96" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8045,12 +8515,12 @@
       <c r="Q97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X97" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y97" s="26">
+      <c r="X97" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>0.1317855</v>
+        <v>0.12747619500000001</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,10 +8575,10 @@
       <c r="Q98" s="20">
         <v>0</v>
       </c>
-      <c r="X98" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y98" s="68"/>
+      <c r="X98" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y98" s="66"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8162,10 +8632,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y99" s="24">
+      <c r="X99" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y99" s="52">
         <f>Y86+Y87</f>
         <v>3099000000</v>
       </c>
@@ -8222,12 +8692,12 @@
       <c r="Q100" s="1">
         <v>339000000</v>
       </c>
-      <c r="X100" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y100" s="25">
+      <c r="X100" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>5.1384598548497012E-3</v>
+        <v>4.6988448331963155E-3</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8282,11 +8752,12 @@
       <c r="Q101" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X101" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y101" s="29">
-        <v>600000000000</v>
+      <c r="X101" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y101" s="37" cm="1">
+        <f t="array" ref="Y101">+_FV(A1,"Market cap",TRUE)</f>
+        <v>656424800000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8341,12 +8812,12 @@
       <c r="Q102" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X102" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y102" s="25">
+      <c r="X102" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.99486154014515027</v>
+        <v>0.99530115516680373</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8401,12 +8872,12 @@
       <c r="Q103" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X103" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y103" s="30">
+      <c r="X103" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>603099000000</v>
+        <v>659523800000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8461,10 +8932,10 @@
       <c r="Q104" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X104" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y104" s="68"/>
+      <c r="X104" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y104" s="66"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -8518,12 +8989,12 @@
       <c r="Q105" s="11">
         <v>16924000000</v>
       </c>
-      <c r="X105" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y105" s="31">
+      <c r="X105" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y105" s="21">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>0.13139889132494117</v>
+        <v>0.12714291094091937</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -8597,10 +9068,10 @@
       <c r="U106" s="15"/>
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
-      <c r="X106" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y106" s="64"/>
+      <c r="X106" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y106" s="62"/>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -8654,170 +9125,171 @@
       <c r="Q107" s="1">
         <v>7561000000</v>
       </c>
-      <c r="R107" s="36">
+      <c r="R107" s="26">
         <f>Q107*(1+$Y$107)</f>
         <v>9160758758.0140381</v>
       </c>
-      <c r="S107" s="36">
+      <c r="S107" s="26">
         <f t="shared" ref="S107:V107" si="58">R107*(1+$Y$107)</f>
         <v>11098994977.189644</v>
       </c>
-      <c r="T107" s="36">
+      <c r="T107" s="26">
         <f t="shared" si="58"/>
         <v>13447323825.214106</v>
       </c>
-      <c r="U107" s="36">
+      <c r="U107" s="26">
         <f t="shared" si="58"/>
         <v>16292512829.477709</v>
       </c>
-      <c r="V107" s="36">
+      <c r="V107" s="26">
         <f t="shared" si="58"/>
         <v>19739687818.105278</v>
       </c>
-      <c r="W107" s="37" t="s">
+      <c r="W107" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="X107" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="X107" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y107" s="39">
+      <c r="Y107" s="29">
         <f>(SUM(R5:V5)/5)</f>
         <v>0.21158031451051951</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R108" s="37"/>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="40">
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="30">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>190163447772.83414</v>
-      </c>
-      <c r="W108" s="41" t="s">
+        <v>198086972724.52917</v>
+      </c>
+      <c r="W108" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="X108" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="X108" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y108" s="43">
+      <c r="Y108" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="40">
+      <c r="R109" s="30">
         <f t="shared" ref="R109:T109" si="59">R108+R107</f>
         <v>9160758758.0140381</v>
       </c>
-      <c r="S109" s="40">
+      <c r="S109" s="30">
         <f t="shared" si="59"/>
         <v>11098994977.189644</v>
       </c>
-      <c r="T109" s="40">
+      <c r="T109" s="30">
         <f t="shared" si="59"/>
         <v>13447323825.214106</v>
       </c>
-      <c r="U109" s="40">
+      <c r="U109" s="30">
         <f>U108+U107</f>
         <v>16292512829.477709</v>
       </c>
-      <c r="V109" s="40">
+      <c r="V109" s="30">
         <f>V108+V107</f>
-        <v>209903135590.93942</v>
-      </c>
-      <c r="W109" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="X109" s="44" t="s">
+        <v>217826660542.63446</v>
+      </c>
+      <c r="W109" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="X109" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y109" s="35">
+        <f>Y105</f>
+        <v>0.12714291094091937</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R110" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="Y109" s="45">
-        <f>Y105</f>
-        <v>0.13139889132494117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="65" t="s">
+      <c r="S110" s="64"/>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R111" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="S110" s="66"/>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="46" t="s">
+      <c r="S111" s="37">
+        <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
+        <v>156082224239.45007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R112" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="S111" s="47">
-        <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>149220261084.08743</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="S112" s="47">
+      <c r="S112" s="37">
         <f>Q41</f>
         <v>22185000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="S113" s="47">
+      <c r="R113" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="S113" s="37">
         <f>Y99</f>
         <v>3099000000</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="46" t="s">
+      <c r="R114" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="S114" s="37">
+        <f>S111+S112-S113</f>
+        <v>175168224239.45007</v>
+      </c>
+    </row>
+    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R115" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="S114" s="47">
-        <f>S111+S112-S113</f>
-        <v>168306261084.08743</v>
-      </c>
-    </row>
-    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="S115" s="62">
+      <c r="S115" s="50">
         <f>Q35*(1+(5*W17))</f>
         <v>4496300737.147871</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="49" t="s">
+      <c r="R116" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="S116" s="39">
+        <f>S114/S115</f>
+        <v>38.958298049823988</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="S116" s="50">
-        <f>S114/S115</f>
-        <v>37.432162776293474</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="48" t="s">
+      <c r="S117" s="60" cm="1">
+        <f t="array" ref="S117">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>207.63</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="51">
-        <v>187.71</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="52" t="s">
+      <c r="S118" s="41">
+        <f>S116/S117-1</f>
+        <v>-0.81236671940555805</v>
+      </c>
+    </row>
+    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R119" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="S118" s="53">
-        <f>S116/S117-1</f>
-        <v>-0.80058514316608886</v>
-      </c>
-    </row>
-    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="S119" s="54" t="str">
+      <c r="S119" s="42" t="str">
         <f>IF(S116&gt;S117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Big Tech/Tesla.xlsx
+++ b/Big Tech/Tesla.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A44362B-C55A-2D4A-87CB-62646EF8B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C9F0B-C1F7-A24E-BF1F-4E7060B88123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -560,11 +559,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -968,7 +968,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1040,6 +1039,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2326,13 +2326,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>384.28960000000001</v>
+    <v>364.07299999999998</v>
     <v>101.81</v>
-    <v>2.0099</v>
-    <v>12.18</v>
-    <v>6.2371999999999997E-2</v>
-    <v>0.17</v>
-    <v>8.1939999999999997E-4</v>
+    <v>2.0205000000000002</v>
+    <v>-0.46</v>
+    <v>-2.48E-3</v>
+    <v>-0.06</v>
+    <v>-3.2419999999999997E-4</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2340,25 +2340,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>207.79</v>
+    <v>186.39</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45016.999993344529</v>
+    <v>45022.999994525002</v>
     <v>0</v>
-    <v>197.2</v>
-    <v>656424800000</v>
+    <v>179.74</v>
+    <v>585548900000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>197.53</v>
-    <v>53.870800000000003</v>
-    <v>195.28</v>
-    <v>207.46</v>
-    <v>207.63</v>
+    <v>183.08</v>
+    <v>51.1783</v>
+    <v>185.52</v>
+    <v>185.06</v>
+    <v>185</v>
     <v>3164103000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>170222118</v>
-    <v>143949373</v>
+    <v>123857932</v>
+    <v>143423783</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2946,10 +2946,10 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S118" sqref="S118"/>
+      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,16 +3216,16 @@
       <c r="V4" s="17">
         <v>210100000000</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="X4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Y4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3314,19 +3314,19 @@
         <f t="shared" ref="V5" si="4">(V4/U4)-1</f>
         <v>0.27720364741641346</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="44">
         <f>(Q5+P5+O5)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="44">
         <f>(Q21+P21+O21)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="44">
         <f>(Q30+P30+O30)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="44">
         <f>(Q106+P106+O106)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -3436,16 +3436,16 @@
       <c r="Q7" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W7" s="43" t="s">
+      <c r="W7" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="44" t="s">
+      <c r="X7" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" s="44" t="s">
+      <c r="Y7" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" s="44" t="s">
+      <c r="Z7" s="43" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3501,19 +3501,19 @@
       <c r="Q8" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="44">
         <f>Q8</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="45">
         <f>Q22</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="45">
         <f>Q31</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="45">
         <f>Q107/Q4</f>
         <v>9.281628243843755E-2</v>
       </c>
@@ -3639,16 +3639,16 @@
         <f t="shared" si="5"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W10" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="X10" s="44" t="s">
+      <c r="X10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="Y10" s="44" t="s">
+      <c r="Y10" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Z10" s="44" t="s">
+      <c r="Z10" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3704,19 +3704,19 @@
       <c r="Q11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W11" s="45">
+      <c r="W11" s="44">
         <f>Q10</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11" s="45">
         <f>Q14</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="45">
         <f>Q81</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="45">
         <f>Q90</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -3826,16 +3826,16 @@
       <c r="Q13" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W13" s="43" t="s">
+      <c r="W13" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="X13" s="44" t="s">
+      <c r="X13" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Y13" s="44" t="s">
+      <c r="Y13" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Z13" s="44" t="s">
+      <c r="Z13" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3907,15 +3907,15 @@
         <f t="shared" ref="Q14" si="19">Q13/Q4</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W14" s="44">
         <f>Q29/Q73</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14" s="45">
         <f>Q29/Q55</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="45">
         <f>Q23/(Q73+Q57+Q62)</f>
         <v>0.28567244733594127</v>
       </c>
@@ -4029,16 +4029,16 @@
       <c r="Q16" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W16" s="43" t="s">
+      <c r="W16" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="X16" s="44" t="s">
+      <c r="X16" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="Y16" s="44" t="s">
+      <c r="Y16" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="Z16" s="44" t="s">
+      <c r="Z16" s="43" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4098,17 +4098,17 @@
         <f>(Q36+P36+O36+N36+M36)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="46">
         <f>Y101/Q4</f>
-        <v>8.058049151751737</v>
-      </c>
-      <c r="Y17" s="47">
+        <v>7.1880005401291402</v>
+      </c>
+      <c r="Y17" s="46">
         <f>Y101/Q29</f>
-        <v>52.279770627588405</v>
-      </c>
-      <c r="Z17" s="48">
+        <v>46.634987257088248</v>
+      </c>
+      <c r="Z17" s="47">
         <f>Y101/Q107</f>
-        <v>86.817193492924218</v>
+        <v>77.44331437640524</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
       <c r="Q19" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W19" s="43" t="s">
+      <c r="W19" s="42" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       <c r="Q20" s="10">
         <v>17626000000</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="48">
         <f>Q41-Q57-Q62</f>
         <v>19086000000</v>
       </c>
@@ -7670,10 +7670,10 @@
       <c r="Q83" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X83" s="67" t="s">
+      <c r="X83" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="Y83" s="68"/>
+      <c r="Y83" s="67"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7727,10 +7727,10 @@
       <c r="Q84" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X84" s="65" t="s">
+      <c r="X84" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="Y84" s="66"/>
+      <c r="Y84" s="65"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7784,10 +7784,10 @@
       <c r="Q85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X85" s="51" t="s">
+      <c r="X85" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="Y85" s="52">
+      <c r="Y85" s="51">
         <f>Q18</f>
         <v>191000000</v>
       </c>
@@ -7844,10 +7844,10 @@
       <c r="Q86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X86" s="51" t="s">
+      <c r="X86" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="Y86" s="52">
+      <c r="Y86" s="51">
         <f>Q57</f>
         <v>1502000000</v>
       </c>
@@ -7904,10 +7904,10 @@
       <c r="Q87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X87" s="51" t="s">
+      <c r="X87" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="Y87" s="52">
+      <c r="Y87" s="51">
         <f>Q62</f>
         <v>1597000000</v>
       </c>
@@ -7964,10 +7964,10 @@
       <c r="Q88" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X88" s="53" t="s">
+      <c r="X88" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="Y88" s="54">
+      <c r="Y88" s="53">
         <f>Y85/(Y86+Y87)</f>
         <v>6.1632784769280413E-2</v>
       </c>
@@ -8024,10 +8024,10 @@
       <c r="Q89" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X89" s="51" t="s">
+      <c r="X89" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="Y89" s="52">
+      <c r="Y89" s="51">
         <f>Q28</f>
         <v>1132000000</v>
       </c>
@@ -8100,10 +8100,10 @@
         <f t="shared" si="56"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X90" s="51" t="s">
+      <c r="X90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="52">
+      <c r="Y90" s="51">
         <f>Q26</f>
         <v>13719000000</v>
       </c>
@@ -8160,10 +8160,10 @@
       <c r="Q91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X91" s="53" t="s">
+      <c r="X91" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Y91" s="54">
+      <c r="Y91" s="53">
         <f>Y89/Y90</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -8220,10 +8220,10 @@
       <c r="Q92" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X92" s="55" t="s">
+      <c r="X92" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Y92" s="56">
+      <c r="Y92" s="55">
         <f>Y88*(1-Y91)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -8280,10 +8280,10 @@
       <c r="Q93" s="1">
         <v>22000000</v>
       </c>
-      <c r="X93" s="65" t="s">
+      <c r="X93" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="Y93" s="66"/>
+      <c r="Y93" s="65"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -8337,10 +8337,10 @@
       <c r="Q94" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X94" s="51" t="s">
+      <c r="X94" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="Y94" s="57">
+      <c r="Y94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8396,12 +8396,12 @@
       <c r="Q95" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X95" s="51" t="s">
+      <c r="X95" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="Y95" s="58" cm="1">
+      <c r="Y95" s="57" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>2.0099</v>
+        <v>2.0205000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8456,10 +8456,10 @@
       <c r="Q96" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X96" s="51" t="s">
+      <c r="X96" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="Y96" s="57">
+      <c r="Y96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       <c r="Q97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X97" s="55" t="s">
+      <c r="X97" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Y97" s="56">
+      <c r="Y97" s="55">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>0.12747619500000001</v>
+        <v>0.12793252500000002</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8575,10 +8575,10 @@
       <c r="Q98" s="20">
         <v>0</v>
       </c>
-      <c r="X98" s="65" t="s">
+      <c r="X98" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="Y98" s="66"/>
+      <c r="Y98" s="65"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8632,10 +8632,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="51" t="s">
+      <c r="X99" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="Y99" s="52">
+      <c r="Y99" s="51">
         <f>Y86+Y87</f>
         <v>3099000000</v>
       </c>
@@ -8692,12 +8692,12 @@
       <c r="Q100" s="1">
         <v>339000000</v>
       </c>
-      <c r="X100" s="53" t="s">
+      <c r="X100" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="Y100" s="54">
+      <c r="Y100" s="53">
         <f>Y99/Y103</f>
-        <v>4.6988448331963155E-3</v>
+        <v>5.2646072465390601E-3</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8752,12 +8752,12 @@
       <c r="Q101" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X101" s="51" t="s">
+      <c r="X101" s="50" t="s">
         <v>133</v>
       </c>
       <c r="Y101" s="37" cm="1">
         <f t="array" ref="Y101">+_FV(A1,"Market cap",TRUE)</f>
-        <v>656424800000</v>
+        <v>585548900000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8812,12 +8812,12 @@
       <c r="Q102" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X102" s="53" t="s">
+      <c r="X102" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="Y102" s="54">
+      <c r="Y102" s="53">
         <f>Y101/Y103</f>
-        <v>0.99530115516680373</v>
+        <v>0.9947353927534609</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8872,12 +8872,12 @@
       <c r="Q103" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X103" s="55" t="s">
+      <c r="X103" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="Y103" s="59">
+      <c r="Y103" s="58">
         <f>Y99+Y101</f>
-        <v>659523800000</v>
+        <v>588647900000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8932,10 +8932,10 @@
       <c r="Q104" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X104" s="65" t="s">
+      <c r="X104" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="Y104" s="66"/>
+      <c r="Y104" s="65"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="Y105" s="21">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>0.12714291094091937</v>
+        <v>0.12755670961733356</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -9068,10 +9068,10 @@
       <c r="U106" s="15"/>
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
-      <c r="X106" s="61" t="s">
+      <c r="X106" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="Y106" s="62"/>
+      <c r="Y106" s="61"/>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -9163,7 +9163,7 @@
       <c r="U108" s="27"/>
       <c r="V108" s="30">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>198086972724.52917</v>
+        <v>197287725874.33136</v>
       </c>
       <c r="W108" s="31" t="s">
         <v>144</v>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="V109" s="30">
         <f>V108+V107</f>
-        <v>217826660542.63446</v>
+        <v>217027413692.43665</v>
       </c>
       <c r="W109" s="31" t="s">
         <v>134</v>
@@ -9204,14 +9204,14 @@
       </c>
       <c r="Y109" s="35">
         <f>Y105</f>
-        <v>0.12714291094091937</v>
+        <v>0.12755670961733356</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="63" t="s">
+      <c r="R110" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="S110" s="64"/>
+      <c r="S110" s="63"/>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R111" s="36" t="s">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="S111" s="37">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>156082224239.45007</v>
+        <v>155389624151.38818</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9246,14 +9246,14 @@
       </c>
       <c r="S114" s="37">
         <f>S111+S112-S113</f>
-        <v>175168224239.45007</v>
+        <v>174475624151.38818</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
       <c r="R115" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="S115" s="50">
+      <c r="S115" s="49">
         <f>Q35*(1+(5*W17))</f>
         <v>4496300737.147871</v>
       </c>
@@ -9262,34 +9262,34 @@
       <c r="R116" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="S116" s="39">
+      <c r="S116" s="68">
         <f>S114/S115</f>
-        <v>38.958298049823988</v>
+        <v>38.804260291108314</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
       <c r="R117" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="S117" s="60" cm="1">
+      <c r="S117" s="59" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>207.63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="40" t="s">
+      <c r="R118" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S118" s="41">
+      <c r="S118" s="40">
         <f>S116/S117-1</f>
-        <v>-0.81236671940555805</v>
+        <v>-0.79024724166968485</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="40" t="s">
+      <c r="R119" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="S119" s="42" t="str">
+      <c r="S119" s="41" t="str">
         <f>IF(S116&gt;S117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -9343,16 +9343,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId35"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62130AF-8662-0247-8064-DF535131AF85}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>